--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>973080.7165486336</v>
+        <v>969606.7465203359</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564206</v>
+        <v>189902.9539564202</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>335.3138620892177</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>227.843273128277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>218.3734398702023</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>239.6951199789832</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>55.84003136202615</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>212.1370054753146</v>
       </c>
       <c r="F8" t="n">
-        <v>92.31206727680522</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,7 +1190,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>155.3197306044664</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>15.24537842269848</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>227.7870324016876</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>124.6604051629493</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>49.3064241939797</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>155.2548023872865</v>
+        <v>109.4741142561156</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>117.7223467653903</v>
       </c>
       <c r="X17" t="n">
-        <v>284.5615160058693</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.31785343913977</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>292.1380595743614</v>
+        <v>235.7783486392154</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>128.7835007017899</v>
+        <v>196.7218456862863</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,19 +2324,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>102.2951235799359</v>
       </c>
       <c r="G23" t="n">
-        <v>297.5642569908811</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
         <v>196.8897623984489</v>
@@ -2479,25 +2479,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>46.80807769362095</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>355.546756558266</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.03757632539477</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.1498336210771</v>
+        <v>155.211488636581</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>121.2547094525073</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>238.766120773593</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>122.5935461816078</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>257.1309721309368</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>263.5975914363318</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>269.5134569480837</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3466,25 +3466,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>54.47555601903409</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43.3178534391397</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>89.76224143674153</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>94.63926978364046</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>125.042956187001</v>
+        <v>225.4603876057575</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>171.7498680634313</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1979.48636361053</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C2" t="n">
-        <v>1979.48636361053</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.086203674652</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>2366.086203674652</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="3">
@@ -4404,22 +4404,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4428,13 +4428,13 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>952.5674858910851</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>952.5674858910851</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>952.5674858910851</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>952.5674858910851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4562,55 +4562,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2400.004118741662</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2068.941231398091</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1716.172576127977</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>1342.706817866897</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y5" t="n">
-        <v>952.5674858910851</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="C7" t="n">
-        <v>279.3468541648867</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="D7" t="n">
-        <v>279.3468541648867</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="E7" t="n">
-        <v>279.3468541648867</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="F7" t="n">
-        <v>279.3468541648867</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="G7" t="n">
-        <v>110.3470539032191</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>110.3470539032191</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>550.5654064942403</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>532.9757468194221</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C8" t="n">
-        <v>532.9757468194221</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D8" t="n">
-        <v>532.9757468194221</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="E8" t="n">
-        <v>147.1874942211778</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4838,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.5755868835438</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="9">
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073964</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.5654064942401</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="C10" t="n">
-        <v>550.5654064942401</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="D10" t="n">
-        <v>550.5654064942401</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>550.5654064942401</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>550.5654064942401</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
         <v>235.9284171545819</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942401</v>
+        <v>712.7296120622943</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C11" t="n">
-        <v>412.2086804271149</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5157,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>678.3245153236264</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.409918978288</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C14" t="n">
-        <v>1551.447402037877</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D14" t="n">
-        <v>1193.181703431126</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533135</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K14" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
         <v>1836.345445977174</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.00975904241</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
         <v>713.8062203571349</v>
@@ -5367,13 +5367,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5394,10 +5394,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5464,22 +5464,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.945354755378</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
         <v>1836.345445977174</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548715</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="X17" t="n">
-        <v>2354.684526795312</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y17" t="n">
-        <v>1964.5451948195</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5701,22 +5701,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1251.855211652197</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
@@ -5759,7 +5759,7 @@
         <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
         <v>1836.345445977174</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W20" t="n">
-        <v>2402.06014195321</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X20" t="n">
-        <v>2028.59438369213</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y20" t="n">
-        <v>1638.455051716319</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614623</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571342</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014716</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5868,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>2442.464602812335</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W22" t="n">
-        <v>2153.047432775375</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632152</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1878.515311311824</v>
+        <v>1783.124109094748</v>
       </c>
       <c r="C23" t="n">
-        <v>1509.552794371412</v>
+        <v>1414.161592154336</v>
       </c>
       <c r="D23" t="n">
-        <v>1151.287095764662</v>
+        <v>1055.895893547586</v>
       </c>
       <c r="E23" t="n">
-        <v>765.4988431664176</v>
+        <v>1055.895893547586</v>
       </c>
       <c r="F23" t="n">
-        <v>354.51293837681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
@@ -6017,22 +6017,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
         <v>713.8062203571349</v>
@@ -6093,16 +6093,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632152</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632152</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632152</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632152</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632152</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632152</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2312.380258669113</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1937.083492693021</v>
+        <v>780.8554976894907</v>
       </c>
       <c r="C26" t="n">
-        <v>1568.120975752609</v>
+        <v>780.8554976894907</v>
       </c>
       <c r="D26" t="n">
-        <v>1209.855277145859</v>
+        <v>422.5897990827402</v>
       </c>
       <c r="E26" t="n">
-        <v>824.0670245476144</v>
+        <v>422.5897990827402</v>
       </c>
       <c r="F26" t="n">
-        <v>413.0811197580069</v>
+        <v>422.5897990827402</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>422.5897990827402</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>95.39507911874301</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.683332757143</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6324,28 +6324,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>502.7251118619119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U28" t="n">
-        <v>502.7251118619119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V28" t="n">
-        <v>502.7251118619119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W28" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.959449965771</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C29" t="n">
-        <v>797.9969330253592</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6473,40 +6473,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2343.463409365404</v>
       </c>
       <c r="U29" t="n">
-        <v>2520.971603332393</v>
+        <v>2343.463409365404</v>
       </c>
       <c r="V29" t="n">
-        <v>2520.971603332393</v>
+        <v>2012.400522021833</v>
       </c>
       <c r="W29" t="n">
-        <v>2168.202948062279</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X29" t="n">
-        <v>1794.737189801199</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y29" t="n">
-        <v>1553.559290029893</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>325.6879402326645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>325.6879402326645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>177.7748466502713</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>177.7748466502713</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1568.353113282533</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C32" t="n">
-        <v>1568.353113282533</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.087414675782</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6728,22 +6728,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1958.492445258345</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>1958.492445258345</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X32" t="n">
-        <v>1958.492445258345</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y32" t="n">
-        <v>1568.353113282533</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W34" t="n">
-        <v>2407.731920981262</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X34" t="n">
-        <v>2179.742370083244</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y34" t="n">
-        <v>2179.742370083244</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6935,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S37" t="n">
-        <v>2305.297090124192</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T37" t="n">
-        <v>2077.988902792793</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U37" t="n">
-        <v>2022.963088632153</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7263,31 +7263,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2066.718496146436</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>2066.718496146436</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>2066.718496146436</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>2066.718496146436</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>2066.718496146436</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
         <v>2022.963088632153</v>
@@ -7336,46 +7336,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>2469.159540120206</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>2248.366960976676</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1584.823100673951</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C41" t="n">
-        <v>1215.86058373354</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>857.5948851267892</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>471.806632528545</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>471.806632528545</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>471.806632528545</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>144.6119125645478</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1584.823100673951</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y41" t="n">
-        <v>1584.823100673951</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
@@ -7509,7 +7509,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
         <v>632.5337622027571</v>
       </c>
       <c r="U43" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1536.177557778964</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C44" t="n">
-        <v>1536.177557778964</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.911859172214</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1236065739693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1536.177557778964</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y44" t="n">
-        <v>1536.177557778964</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="45">
@@ -7722,10 +7722,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
         <v>266.2060027641994</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>2342.015910972395</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610023</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="V46" t="n">
-        <v>184.2708856551154</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>2523.664375802635</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>47.41997957426287</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>126.839768492406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22762,16 +22762,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.80115265030449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>164.3604017932783</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22838,19 +22838,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>11.52904752930613</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>11.99007165458423</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>79.12559043031212</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23005,10 +23005,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,19 +23027,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>169.7933645969472</v>
       </c>
       <c r="F8" t="n">
-        <v>314.5639784649062</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,7 +23078,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23179,10 +23179,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23191,7 +23191,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>11.99007165458451</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>13.87737153221583</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>137.48585936932</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>224.5805635544637</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>130.5255559879576</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>226.6755676849752</v>
+        <v>272.4562558161462</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23792,10 +23792,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>231.5186219520227</v>
       </c>
       <c r="X17" t="n">
-        <v>85.16958467259974</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,22 +23941,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>57.10290914305159</v>
+        <v>113.4626200781976</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>96.92615468724728</v>
+        <v>28.98780970275089</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24212,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>304.5809221617756</v>
       </c>
       <c r="G23" t="n">
-        <v>116.2199130299139</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,10 +24257,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24367,25 +24367,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>109.3628111481742</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,25 +24443,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>58.23741346252899</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>110.8937399194665</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,16 +24494,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>1.885271837007195</v>
+        <v>69.82361682150326</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24680,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>95.19361090515048</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>147.4718178824606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>44.71625607744309</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24892,19 +24892,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>125.6028695325438</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24968,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>64.15466703380315</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.62049154535694</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>83.6485151246798</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25120,13 +25120,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25135,10 +25135,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25354,25 +25354,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>17.88169127836775</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>231.8063182229436</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,7 +25445,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>30.22198880999329</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>123.9919488199112</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25597,13 +25597,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>62.16907480811972</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,16 +25685,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25837,7 +25837,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3958356744438</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>244.6881444914681</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26074,16 +26074,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>53.28523739465302</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="C2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="D2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="E2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="F2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="C2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="D2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="E2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="F2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149697</v>
@@ -26335,25 +26335,25 @@
         <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26491,10 +26491,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26503,13 +26503,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-415945.6908231803</v>
+        <v>-416360.9053326473</v>
       </c>
       <c r="C6" t="n">
-        <v>174022.1883913641</v>
+        <v>173606.9738818971</v>
       </c>
       <c r="D6" t="n">
-        <v>174022.1883913643</v>
+        <v>173606.9738818972</v>
       </c>
       <c r="E6" t="n">
-        <v>207649.7883913641</v>
+        <v>207234.5738818972</v>
       </c>
       <c r="F6" t="n">
-        <v>207649.7883913641</v>
+        <v>207234.573881897</v>
       </c>
       <c r="G6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.573881897</v>
       </c>
       <c r="H6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.573881897</v>
       </c>
       <c r="I6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.573881897</v>
       </c>
       <c r="J6" t="n">
-        <v>31226.56919877125</v>
+        <v>30811.35468930413</v>
       </c>
       <c r="K6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="L6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.573881897</v>
       </c>
       <c r="M6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="N6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="O6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.573881897</v>
       </c>
       <c r="P6" t="n">
-        <v>207649.7883913644</v>
+        <v>207234.573881897</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,22 +26799,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35735,7 +35735,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,13 +35975,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
         <v>478.8956552492236</v>
@@ -36212,13 +36212,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L41" t="n">
         <v>421.5361394435301</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969606.7465203359</v>
+        <v>998451.0572750624</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564202</v>
+        <v>189902.9539564206</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.3138620892177</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>55.64203713755307</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903385</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.3734398702023</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3197306044667</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>212.1370054753146</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>167.6299741535132</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H9" t="n">
         <v>104.3883541553076</v>
@@ -1260,7 +1262,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.24537842269848</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>227.7870324016876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>76.49321080792292</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.3064241939797</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>109.4741142561156</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,10 +1666,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>293.9557741331908</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>273.1951828193246</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>117.7223467653903</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>156.1271626621471</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>40.89842289208948</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>235.7783486392154</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>34.10050473850185</v>
       </c>
       <c r="X22" t="n">
-        <v>196.7218456862863</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>102.2951235799359</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>18.28928943979415</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2479,25 +2481,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
       <c r="H25" t="n">
-        <v>46.80807769362095</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.03757632539477</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>155.211488636581</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>258.1497889606063</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>121.2547094525073</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>125.4417790696913</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>257.1309721309368</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>84.91490440441552</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>269.5134569480837</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>302.2028583029326</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>279.9387901805692</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>225.4603876057575</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207.4089578252748</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C2" t="n">
-        <v>207.4089578252748</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
@@ -4367,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1606.27949621275</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982761</v>
+        <v>1606.27949621275</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.1098286224644</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,22 +4409,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4562,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942403</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>550.5654064942403</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
         <v>393.6767897220517</v>
@@ -4723,7 +4725,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.638474227114</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.638474227114</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D8" t="n">
-        <v>1250.638474227114</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4838,16 +4840,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1250.638474227114</v>
+        <v>766.9259543826058</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4908,16 +4910,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>543.7934291343875</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
         <v>393.6767897220517</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.7296120622943</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1540.921096014692</v>
+        <v>1714.909333753394</v>
       </c>
       <c r="C11" t="n">
-        <v>1310.833184497836</v>
+        <v>1345.946816812982</v>
       </c>
       <c r="D11" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5072,19 +5074,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284806</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.921096014692</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X11" t="n">
-        <v>1540.921096014692</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y11" t="n">
-        <v>1540.921096014692</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073963</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>678.3245153236264</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C13" t="n">
-        <v>509.3883323957195</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D13" t="n">
-        <v>359.2716929833838</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E13" t="n">
-        <v>359.2716929833838</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F13" t="n">
-        <v>359.2716929833838</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1309.714918859356</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="C14" t="n">
-        <v>940.7524019189439</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D14" t="n">
-        <v>582.4867033121934</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224073</v>
@@ -5288,7 +5290,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5312,16 +5314,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="X14" t="n">
-        <v>1309.714918859356</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1309.714918859356</v>
+        <v>1696.62143709608</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T16" t="n">
-        <v>632.5337622027571</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U16" t="n">
-        <v>343.360151857325</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1251.855211652197</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>329.8977119408944</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,7 +5515,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2402.06014195321</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>2028.59438369213</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y17" t="n">
-        <v>1638.455051716319</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5701,16 +5703,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>211.6471865296039</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>882.8926947117852</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117852</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5750,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2212.181128500977</v>
+        <v>2655.837552743385</v>
       </c>
       <c r="V20" t="n">
-        <v>1881.118241157406</v>
+        <v>2655.837552743385</v>
       </c>
       <c r="W20" t="n">
-        <v>1642.958293036987</v>
+        <v>2303.06889747327</v>
       </c>
       <c r="X20" t="n">
-        <v>1269.492534775907</v>
+        <v>2303.06889747327</v>
       </c>
       <c r="Y20" t="n">
-        <v>1269.492534775907</v>
+        <v>1912.929565497459</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5914,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W22" t="n">
-        <v>473.4444960005474</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X22" t="n">
-        <v>274.7355609638946</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1783.124109094748</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C23" t="n">
-        <v>1414.161592154336</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="D23" t="n">
-        <v>1055.895893547586</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="E23" t="n">
-        <v>1055.895893547586</v>
+        <v>483.4029163471378</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>72.41701155753026</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6017,22 +6019,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W23" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X23" t="n">
-        <v>2169.72394915887</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y23" t="n">
-        <v>2169.72394915887</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="24">
@@ -6048,10 +6050,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
@@ -6060,7 +6062,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940985</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117053</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="F25" t="n">
-        <v>283.209303713795</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="G25" t="n">
-        <v>283.209303713795</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>2179.742370083244</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>780.8554976894907</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>780.8554976894907</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>422.5897990827402</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>422.5897990827402</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>422.5897990827402</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>422.5897990827402</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>95.39507911874301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1540.921096014692</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1167.455337753612</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1167.455337753612</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614627</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6324,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>571.3497027553424</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>882.8926947117852</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8926947117852</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D29" t="n">
-        <v>882.8926947117852</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>732.6641525086486</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>314.7003444068355</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6461,10 +6463,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224076</v>
@@ -6488,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2343.463409365404</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2343.463409365404</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2012.400522021833</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1659.631866751719</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X29" t="n">
-        <v>1659.631866751719</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y29" t="n">
-        <v>1269.492534775907</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6652,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1380.123535465744</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C32" t="n">
-        <v>1011.161018525332</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>1011.161018525332</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6701,16 +6703,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2556.347770837185</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.585985475276</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.851790143458</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.851790143458</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6777,43 +6779,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
         <v>53.94298182036445</v>
@@ -6862,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>138.3857151273827</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>138.3857151273827</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.952954307291</v>
+        <v>770.1842990371767</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>770.1842990371767</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>770.1842990371767</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>359.1983942475692</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6974,13 +6976,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7029,10 +7031,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>598.0446400632119</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>598.0446400632119</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T37" t="n">
-        <v>598.0446400632119</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.68094731003</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7205,19 +7207,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>2045.420119349963</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1655.280787374151</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7266,28 +7268,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7336,37 +7338,37 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>2539.444886308983</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>2312.136698977585</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>2022.963088632153</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632153</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
         <v>2022.963088632153</v>
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1637.643464250441</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7427,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2414.382636290375</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y41" t="n">
-        <v>2024.243304314563</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7487,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
@@ -7509,7 +7511,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1637.643464250441</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7688,10 +7690,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.382636290375</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>2024.243304314563</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7716,34 +7718,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2342.015910972395</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>2173.079728044489</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
         <v>2022.963088632153</v>
@@ -7813,43 +7815,43 @@
         <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U46" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V46" t="n">
-        <v>2523.664375802635</v>
+        <v>2533.172837812644</v>
       </c>
       <c r="W46" t="n">
-        <v>2523.664375802635</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="X46" t="n">
-        <v>2523.664375802635</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y46" t="n">
-        <v>2523.664375802635</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10677,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.41997957426287</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22565,7 +22567,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>293.5989315798599</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229439</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.3604017932783</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22948,13 +22950,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.99007165458423</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23027,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>169.7933645969472</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>218.6079645025404</v>
       </c>
     </row>
     <row r="9">
@@ -23179,19 +23181,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.87737153221583</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23258,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>137.48585936932</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>278.18983081276</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.5255559879576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23495,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>272.4562558161462</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>33.7964843369441</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458445</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>50.72758994503255</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23792,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>231.5186219520227</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,19 +23943,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>96.01048066168093</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>210.3257446161998</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>113.4626200781976</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24142,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>252.4224935980891</v>
       </c>
       <c r="X22" t="n">
-        <v>28.98780970275089</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>304.5809221617756</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4948805810008</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>12.09831362247056</v>
       </c>
       <c r="H25" t="n">
-        <v>109.3628111481742</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>110.8937399194665</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24619,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,19 +24654,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>69.82361682150326</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>65.77298380375089</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>95.19361090515048</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>41.86802318935966</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24892,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>125.6028695325438</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>131.5334159532423</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>83.6485151246798</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>85.16958467259929</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>111.5813117178624</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>17.88169127836775</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787177</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25445,7 +25447,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>30.22198880999329</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>56.0183762878722</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>89.79231049789979</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26044,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>53.28523739465302</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>89.80115265030454</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="D2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="D2" t="n">
-        <v>274694.9795149699</v>
-      </c>
       <c r="E2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149697</v>
@@ -26332,22 +26334,22 @@
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="M2" t="n">
-        <v>274694.9795149696</v>
-      </c>
       <c r="N2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
@@ -26470,7 +26472,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26491,7 +26493,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26500,16 +26502,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326473</v>
+        <v>-416360.9053326475</v>
       </c>
       <c r="C6" t="n">
+        <v>173606.973881897</v>
+      </c>
+      <c r="D6" t="n">
         <v>173606.9738818971</v>
       </c>
-      <c r="D6" t="n">
-        <v>173606.9738818972</v>
-      </c>
       <c r="E6" t="n">
-        <v>207234.5738818972</v>
+        <v>207234.573881897</v>
       </c>
       <c r="F6" t="n">
         <v>207234.573881897</v>
@@ -26540,19 +26542,19 @@
         <v>207234.573881897</v>
       </c>
       <c r="I6" t="n">
-        <v>207234.573881897</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="J6" t="n">
-        <v>30811.35468930413</v>
+        <v>30811.35468930403</v>
       </c>
       <c r="K6" t="n">
         <v>207234.5738818971</v>
       </c>
       <c r="L6" t="n">
+        <v>207234.5738818971</v>
+      </c>
+      <c r="M6" t="n">
         <v>207234.573881897</v>
-      </c>
-      <c r="M6" t="n">
-        <v>207234.5738818969</v>
       </c>
       <c r="N6" t="n">
         <v>207234.5738818969</v>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26753,7 +26755,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26765,19 +26767,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26813,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32698,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34360,46 +34362,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34536,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35261,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35744,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36449,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36680,13 +36682,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37868,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>130.3926104730631</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q44" t="n">
         <v>153.997506289869</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38187,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>998451.0572750624</v>
+        <v>947131.3959306959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564206</v>
+        <v>189902.9539564205</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.5610135320061</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>55.64203713755307</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903385</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>89.30725745073089</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>167.7808802211964</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>49.92693022021953</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>282.09815785506</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>167.6299741535132</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
         <v>104.3883541553076</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>76.49321080792292</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>307.9895902233666</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3197306044668</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>166.1112503860517</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>293.9557741331908</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044665</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>347.0822867516925</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>273.1951828193246</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2061,13 +2061,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>155.4526127311941</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>284.3192806430687</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>40.89842289208948</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.10050473850185</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982958</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>18.28928943979415</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>221.002178698296</v>
+        <v>195.9742023825741</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>258.1497889606063</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>102.5756487563989</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>125.4417790696913</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>1.178581215701524</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>84.91490440441552</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017903</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>348.1637173551927</v>
       </c>
       <c r="G35" t="n">
-        <v>302.2028583029326</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>332.148070350821</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017899</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364063</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>194.8773026050924</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>284.5615160058697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>155.2114886365811</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>131.4310010791938</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>162.3364906735235</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1219.679656148628</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C2" t="n">
-        <v>850.7171392082163</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D2" t="n">
-        <v>850.7171392082163</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>800.8269237811974</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1606.27949621275</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1606.27949621275</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1606.27949621275</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,37 +4406,37 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>967.4725696124262</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>609.2068710056758</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>223.4186184074316</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>223.4186184074316</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>223.4186184074316</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4661,10 +4661,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>431.1223972961883</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>262.1225970345207</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>104.3742244670509</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>766.9259543826058</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C8" t="n">
-        <v>766.9259543826058</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D8" t="n">
-        <v>766.9259543826058</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E8" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y8" t="n">
-        <v>766.9259543826058</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,13 +4886,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.909333753394</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C11" t="n">
-        <v>1345.946816812982</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F11" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5071,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>2105.048665729205</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y11" t="n">
-        <v>1714.909333753394</v>
+        <v>1995.909162857191</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5117,13 +5117,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
         <v>713.8062203571349</v>
@@ -5141,22 +5141,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>550.5654064942404</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>550.5654064942404</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.62143709608</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.62143709608</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D14" t="n">
-        <v>1338.355738489329</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>952.5674858910851</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V14" t="n">
-        <v>1696.62143709608</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W14" t="n">
-        <v>1696.62143709608</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X14" t="n">
-        <v>1696.62143709608</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y14" t="n">
-        <v>1696.62143709608</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5384,25 +5384,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942401</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.915471247702</v>
+        <v>1233.480863147838</v>
       </c>
       <c r="C17" t="n">
-        <v>1491.915471247702</v>
+        <v>1233.480863147838</v>
       </c>
       <c r="D17" t="n">
-        <v>1133.649772640952</v>
+        <v>1233.480863147838</v>
       </c>
       <c r="E17" t="n">
-        <v>747.8615200427075</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F17" t="n">
-        <v>747.8615200427075</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>329.8977119408944</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.654643287636</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.515311311824</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615926</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5709,16 +5709,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1526.329725433337</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C20" t="n">
-        <v>1157.367208492925</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D20" t="n">
-        <v>799.1015098861748</v>
+        <v>1170.083887280541</v>
       </c>
       <c r="E20" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U20" t="n">
-        <v>2655.837552743385</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>2655.837552743385</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W20" t="n">
-        <v>2303.06889747327</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X20" t="n">
-        <v>2303.06889747327</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y20" t="n">
-        <v>1912.929565497459</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615926</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.6913543878343</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="C22" t="n">
-        <v>211.6913543878343</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="D22" t="n">
-        <v>211.6913543878343</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="E22" t="n">
-        <v>211.6913543878343</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="F22" t="n">
-        <v>211.6913543878343</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V22" t="n">
-        <v>246.1363086691493</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W22" t="n">
-        <v>211.6913543878343</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X22" t="n">
-        <v>211.6913543878343</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.6913543878343</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1238.153685885794</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C23" t="n">
-        <v>869.1911689453821</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D23" t="n">
-        <v>869.1911689453821</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E23" t="n">
-        <v>483.4029163471378</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>72.41701155753026</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V23" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.892857925727</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y23" t="n">
-        <v>1624.753525949915</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
         <v>713.8062203571349</v>
@@ -6089,22 +6089,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>995.950672805737</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>995.950672805737</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614627</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W28" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1512.612574238668</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>1143.650057298256</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.650057298256</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>1143.650057298256</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>732.6641525086486</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>314.7003444068355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6463,10 +6463,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224076</v>
@@ -6475,7 +6475,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W29" t="n">
-        <v>2289.351746278601</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X29" t="n">
-        <v>2289.351746278601</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y29" t="n">
-        <v>1899.21241430279</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.3364050629041</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C31" t="n">
-        <v>338.4002221349972</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D31" t="n">
-        <v>338.4002221349972</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E31" t="n">
-        <v>338.4002221349972</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
-        <v>338.4002221349972</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6657,16 +6657,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1584.923258067584</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.960741127172</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D32" t="n">
-        <v>857.6950425204218</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.958604941756</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2519.781117255926</v>
       </c>
       <c r="T32" t="n">
-        <v>2556.347770837185</v>
+        <v>2519.781117255926</v>
       </c>
       <c r="U32" t="n">
-        <v>2302.585985475276</v>
+        <v>2519.781117255926</v>
       </c>
       <c r="V32" t="n">
-        <v>1971.523098131706</v>
+        <v>2519.781117255926</v>
       </c>
       <c r="W32" t="n">
-        <v>1971.523098131706</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="X32" t="n">
-        <v>1971.523098131706</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="Y32" t="n">
-        <v>1971.523098131706</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6800,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6891,13 +6891,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
         <v>53.94298182036445</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1139.146815977588</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C35" t="n">
-        <v>770.1842990371767</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="D35" t="n">
-        <v>770.1842990371767</v>
+        <v>1209.375565101425</v>
       </c>
       <c r="E35" t="n">
-        <v>770.1842990371767</v>
+        <v>823.5873125031803</v>
       </c>
       <c r="F35" t="n">
-        <v>359.1983942475692</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036446</v>
@@ -6940,10 +6940,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2289.351746278602</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.885988017522</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y35" t="n">
-        <v>1525.74665604171</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2539.444886308983</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2312.136698977585</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2022.963088632153</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>2022.963088632153</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090468</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194392</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036446</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7189,7 +7189,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P38" t="n">
         <v>2544.691559791253</v>
@@ -7204,22 +7204,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1150.38930518072</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,19 +7253,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U40" t="n">
-        <v>2567.064746875001</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V40" t="n">
-        <v>2312.380258669114</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755379</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082163</v>
+        <v>577.9834619915257</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036446</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7490,25 +7490,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7578,37 +7578,37 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U43" t="n">
-        <v>571.3497027553424</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V43" t="n">
-        <v>571.3497027553424</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
         <v>53.94298182036446</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E44" t="n">
-        <v>737.1647017090468</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1787969194392</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P44" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2564.390504069543</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2310.628718707635</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1979.565831364064</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1979.565831364064</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1606.100073102984</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1215.960741127172</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018223</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V46" t="n">
-        <v>2533.172837812644</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>2243.755667775683</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="X46" t="n">
-        <v>2243.755667775683</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,10 +10913,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747115</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>150.2231564887888</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>293.5989315798599</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22713,10 +22713,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229439</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>129.2773959013639</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>156.1418925431607</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22947,10 +22947,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22962,10 +22962,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>85.03869157211869</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23026,19 +23026,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>99.8322122172018</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.6079645025404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>278.18983081276</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>61.7415104551024</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>11.99007165458411</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,13 +23472,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>188.5717912346312</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>33.7964843369441</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458445</v>
+        <v>38.52630155726081</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23712,10 +23712,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>34.84808332056929</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>50.72758994503255</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>96.68503059263386</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>97.6110894291931</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>210.3257446161998</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>11.42376369151711</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24186,10 +24186,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>252.4224935980891</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>144.2707130727118</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4948805810008</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24262,7 +24262,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>12.09831362247056</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24420,16 +24420,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>144.2707130727115</v>
+        <v>169.2986893884335</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,13 +24499,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>65.77298380375089</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24739,13 +24739,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>52.27167719702715</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>43.85831389017027</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>41.86802318935966</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24897,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>53.29982135911017</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>131.5334159532423</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401874</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>58.71232838651878</v>
       </c>
       <c r="G35" t="n">
-        <v>111.5813117178624</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>56.01837628787177</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>54.08986830523259</v>
       </c>
     </row>
     <row r="39">
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801578</v>
@@ -25605,10 +25605,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401879</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>187.0530674671694</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
@@ -25842,16 +25842,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>131.0703856053966</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>85.01731927846396</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26076,13 +26076,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629383</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>89.80115265030454</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>274694.9795149698</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149697</v>
@@ -26328,34 +26328,34 @@
         <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="K2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="M2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="O2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26505,13 +26505,13 @@
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340949</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326475</v>
+        <v>-422429.3190784666</v>
       </c>
       <c r="C6" t="n">
-        <v>173606.973881897</v>
+        <v>167538.5601360779</v>
       </c>
       <c r="D6" t="n">
-        <v>173606.9738818971</v>
+        <v>167538.5601360779</v>
       </c>
       <c r="E6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="F6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="G6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="H6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="I6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="J6" t="n">
-        <v>30811.35468930403</v>
+        <v>24742.94094348492</v>
       </c>
       <c r="K6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="L6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="M6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="N6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="O6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="P6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26755,7 +26755,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26773,10 +26773,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170869</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,22 +26798,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33891,7 +33891,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33900,34 +33900,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,40 +33964,40 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I39" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
@@ -34006,7 +34006,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,10 +34125,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34137,34 +34137,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34301,28 +34301,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245897</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031299</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947131.3959306959</v>
+        <v>992826.6649842925</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564205</v>
+        <v>189902.9539564202</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>263.5610135320061</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>223.0120411822529</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>79.32920716089164</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.30725745073089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.5100375945093</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>167.7808802211964</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>49.92693022021953</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>47.14167849255905</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>282.09815785506</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1189,13 +1189,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>44.4263442746773</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>120.2570633735995</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>307.9895902233666</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>19.34185060258129</v>
       </c>
     </row>
     <row r="12">
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>166.1112503860517</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>209.5972717395343</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.1332020905461</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>347.0822867516925</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1903,13 +1903,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>199.0074215892093</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>23.35455705266789</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>284.3192806430687</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.012067248100193</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>221.0021786982958</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>10.96863942327882</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>195.9742023825741</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>33.23657099140143</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>20.16013205738698</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>275.4805812731078</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>130.3341013017103</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>102.5756487563989</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>15.90252802695429</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,16 +3031,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.178581215701524</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>216.8971570226922</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>155.2114886365811</v>
+        <v>206.0978190620148</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>348.1637173551927</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>381.5971049273191</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>84.84244993117485</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>73.90228421228882</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>332.148070350821</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>94.63926978364063</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>194.8773026050924</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>330.6344687135546</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>86.11283245544982</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017904</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>131.4310010791938</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>151.1115915536153</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T46" t="n">
-        <v>128.7835007017904</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1580.775345511217</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.812828570805</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.812828570805</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1211.812828570805</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>800.8269237811974</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2471.884402955341</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.435086552838</v>
+        <v>1358.140854479382</v>
       </c>
       <c r="C5" t="n">
-        <v>967.4725696124262</v>
+        <v>1358.140854479382</v>
       </c>
       <c r="D5" t="n">
-        <v>609.2068710056758</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E5" t="n">
-        <v>223.4186184074316</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F5" t="n">
-        <v>223.4186184074316</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>223.4186184074316</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4603,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>1744.740694543504</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>578.0123447940987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>431.1223972961883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>262.1225970345207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>104.3742244670509</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1526.106027515566</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C8" t="n">
-        <v>1526.106027515566</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D8" t="n">
-        <v>1167.840328908816</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
@@ -4837,19 +4837,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1617.608478902523</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>1617.608478902523</v>
       </c>
       <c r="Y8" t="n">
-        <v>1526.106027515566</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1995.909162857191</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.680947310029</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X11" t="n">
-        <v>2386.048494833003</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y11" t="n">
-        <v>1995.909162857191</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5117,46 +5117,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V13" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1018.506281012309</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C14" t="n">
-        <v>1018.506281012309</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D14" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U14" t="n">
-        <v>2465.942913862885</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>2134.880026519314</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>1782.1113712492</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X14" t="n">
-        <v>1408.645612988121</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y14" t="n">
-        <v>1018.506281012309</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
         <v>713.8062203571349</v>
@@ -5378,31 +5378,31 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V16" t="n">
-        <v>473.4444960005474</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W16" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X16" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1233.480863147838</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C17" t="n">
-        <v>1233.480863147838</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1233.480863147838</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>1993.54646147304</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>1993.54646147304</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="X17" t="n">
-        <v>1620.08070321196</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y17" t="n">
-        <v>1620.08070321196</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
         <v>713.8062203571349</v>
@@ -5606,37 +5606,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>77.53344348972595</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1528.349585887292</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C20" t="n">
-        <v>1528.349585887292</v>
+        <v>1277.784045540434</v>
       </c>
       <c r="D20" t="n">
-        <v>1170.083887280541</v>
+        <v>1277.784045540434</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117851</v>
+        <v>891.9957929421894</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>481.0098881525818</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>63.04608005076869</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U20" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V20" t="n">
-        <v>1881.118241157406</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W20" t="n">
-        <v>1528.349585887292</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X20" t="n">
-        <v>1528.349585887292</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="Y20" t="n">
-        <v>1528.349585887292</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5828,13 +5828,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
         <v>713.8062203571349</v>
@@ -5843,13 +5843,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5858,16 +5858,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U22" t="n">
-        <v>500.820796875036</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V22" t="n">
-        <v>500.820796875036</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W22" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X22" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>808.6937513590204</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.680947310029</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.680947310029</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2686.069657257335</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548715</v>
+        <v>2509.892169571505</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548715</v>
+        <v>2509.892169571505</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548715</v>
+        <v>2256.130384209597</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548715</v>
+        <v>1925.067496866026</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548715</v>
+        <v>1572.298841595912</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287635</v>
+        <v>1198.833083334832</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>808.6937513590204</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>995.950672805737</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C26" t="n">
-        <v>797.9969330253591</v>
+        <v>884.2894331389248</v>
       </c>
       <c r="D26" t="n">
-        <v>439.7312344186087</v>
+        <v>884.2894331389248</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036444</v>
+        <v>498.5011805406805</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036444</v>
+        <v>87.51527575107298</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656313</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312743</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W26" t="n">
-        <v>1759.555763042629</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X26" t="n">
-        <v>1386.090004781549</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y26" t="n">
-        <v>995.950672805737</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6320,10 +6320,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>74.30675157530081</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>74.30675157530081</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>74.30675157530081</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T28" t="n">
-        <v>308.6274700262513</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>224.4233909876365</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2418.885877611043</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.885877611043</v>
+        <v>1530.832966754005</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1157.367208492925</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C31" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D31" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="W31" t="n">
-        <v>473.4444960005474</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="X31" t="n">
-        <v>473.4444960005474</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1780.41262192169</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C32" t="n">
-        <v>1780.41262192169</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.14692331494</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F32" t="n">
         <v>625.3727659270879</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2695.958604941756</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2519.781117255926</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2519.781117255926</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2519.781117255926</v>
+        <v>2423.032364152057</v>
       </c>
       <c r="V32" t="n">
-        <v>2519.781117255926</v>
+        <v>2091.969476808486</v>
       </c>
       <c r="W32" t="n">
-        <v>2167.012461985812</v>
+        <v>1739.200821538372</v>
       </c>
       <c r="X32" t="n">
-        <v>2167.012461985812</v>
+        <v>1739.200821538372</v>
       </c>
       <c r="Y32" t="n">
-        <v>2167.012461985812</v>
+        <v>1739.200821538372</v>
       </c>
     </row>
     <row r="33">
@@ -6791,7 +6791,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
         <v>2188.831293537797</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>571.3497027553424</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="V34" t="n">
-        <v>571.3497027553424</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1567.641263708175</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C35" t="n">
-        <v>1567.641263708175</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="D35" t="n">
-        <v>1209.375565101425</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="E35" t="n">
-        <v>823.5873125031803</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748109</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X35" t="n">
-        <v>2344.380435748109</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y35" t="n">
-        <v>1954.241103772297</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>139.6424261952886</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U37" t="n">
-        <v>598.044640063212</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1150.38930518072</v>
+        <v>1469.273141255051</v>
       </c>
       <c r="C38" t="n">
-        <v>1150.38930518072</v>
+        <v>1469.273141255051</v>
       </c>
       <c r="D38" t="n">
-        <v>792.1236065739693</v>
+        <v>1111.0074426483</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1236065739693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224074</v>
@@ -7186,40 +7186,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W38" t="n">
-        <v>1485.892406545185</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X38" t="n">
-        <v>1485.892406545185</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y38" t="n">
-        <v>1150.38930518072</v>
+        <v>1469.273141255051</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610025</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>936.2491605982761</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C41" t="n">
-        <v>936.2491605982761</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="D41" t="n">
-        <v>577.9834619915257</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.546461473041</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X41" t="n">
-        <v>936.2491605982761</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y41" t="n">
-        <v>936.2491605982761</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064347</v>
+        <v>641.1463251605253</v>
       </c>
       <c r="U43" t="n">
-        <v>598.044640063212</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C44" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2564.390504069543</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2310.628718707635</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>1979.565831364064</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W44" t="n">
-        <v>1979.565831364064</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="X44" t="n">
-        <v>1606.100073102984</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y44" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
         <v>1237.953133915166</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064347</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T46" t="n">
-        <v>598.044640063212</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10439,10 +10439,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028829</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>150.2231564887888</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22606,16 +22606,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>104.740217287882</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22713,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>67.10475548567753</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,7 +22722,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -22761,19 +22761,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.2773959013639</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.17300402617366</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>156.1418925431607</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,10 +22843,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22950,22 +22950,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>85.03869157211869</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>99.8322122172018</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23077,13 +23077,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>304.8146244427357</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23184,16 +23184,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>47.05273888545142</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23232,16 +23232,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>61.7415104551024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>366.8960880534723</v>
       </c>
     </row>
     <row r="12">
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>188.5717912346312</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>139.6436969778787</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>38.52630155726081</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>7.012336859472782</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23712,7 +23712,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>34.84808332056929</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>150.2335471282038</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>143.955245206383</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23940,16 +23940,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>97.6110894291931</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>314.9107055162569</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>11.42376369151711</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,13 +24180,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>144.2707130727118</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>43.50976315153288</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3712490426387</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>169.2986893884335</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>380.5475990293936</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,7 +24499,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>147.1496702016639</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>21.87414536972216</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>52.27167719702715</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>218.9068674157027</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>43.85831389017027</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>209.13257743113</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>53.29982135911017</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>34.32701048559707</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>131.0703856053966</v>
+        <v>80.18405517996297</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>58.71232838651878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>32.18706509347589</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>82.46735232787606</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25362,19 +25362,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>308.028085859973</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>54.08986830523259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4983735401874</v>
+        <v>96.0104806616809</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>187.0530674671694</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>76.24157702815688</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>138.9222730026345</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401873</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>85.01731927846396</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>198.1293771637977</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T46" t="n">
-        <v>96.25160475629383</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="D2" t="n">
         <v>274694.9795149699</v>
       </c>
       <c r="E2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="F2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="G2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="H2" t="n">
+        <v>274694.9795149695</v>
+      </c>
+      <c r="I2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="G2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="I2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="O2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149698</v>
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26481,37 +26481,37 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422429.3190784666</v>
+        <v>-416967.7467072293</v>
       </c>
       <c r="C6" t="n">
-        <v>167538.5601360779</v>
+        <v>173000.132507315</v>
       </c>
       <c r="D6" t="n">
-        <v>167538.5601360779</v>
+        <v>173000.1325073152</v>
       </c>
       <c r="E6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073153</v>
       </c>
       <c r="F6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="G6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073153</v>
       </c>
       <c r="H6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073149</v>
       </c>
       <c r="I6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="J6" t="n">
-        <v>24742.94094348492</v>
+        <v>30204.51331472213</v>
       </c>
       <c r="K6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073153</v>
       </c>
       <c r="L6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="M6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="N6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="O6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073153</v>
       </c>
       <c r="P6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073152</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26758,13 +26758,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
@@ -26773,13 +26773,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26792,46 +26792,46 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,22 +33119,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34301,28 +34301,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37159,10 +37159,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735647</v>
@@ -37323,7 +37323,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
